--- a/SCBAA/2020/Region 8.xlsx
+++ b/SCBAA/2020/Region 8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC53039-229C-434E-8DD1-936EC010813C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEEB020-59ED-472C-AD4D-4CD0BA54F337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="1215" windowWidth="13005" windowHeight="12495" firstSheet="3" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="1" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Calbayog" sheetId="10" r:id="rId1"/>
@@ -25,6 +25,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3898,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C236DA0D-E80F-4060-9CB3-4F8B7D7C3FEC}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,7 +4064,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>27246731.68</v>
       </c>
     </row>
@@ -4111,7 +4117,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>22051968.649999999</v>
       </c>
     </row>
@@ -4302,7 +4307,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>952131486.78000009</v>
       </c>
     </row>
@@ -4859,7 +4863,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="23">
-        <f>4254454.5+6700260.5+26834003.53</f>
         <v>37788718.530000001</v>
       </c>
     </row>
@@ -4871,7 +4874,6 @@
         <v>51</v>
       </c>
       <c r="E92" s="39">
-        <f>1973435.46+167806+40863085.86</f>
         <v>43004327.32</v>
       </c>
     </row>
@@ -4881,7 +4883,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>765481882.25999999</v>
       </c>
     </row>
@@ -5048,7 +5049,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="38">
-        <f>7100+1055856.34+1973435.46+5186682.18+95070525.89+167806+40863085.86</f>
         <v>144324491.73000002</v>
       </c>
     </row>
@@ -5057,7 +5057,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>161366598.82000002</v>
       </c>
     </row>
@@ -5069,7 +5068,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>926848481.08000004</v>
       </c>
     </row>
@@ -8660,7 +8658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE84D013-E7BE-4D7A-85C9-9A3234CF01B3}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
